--- a/99_その他/開発体験シート_59.xlsx
+++ b/99_その他/開発体験シート_59.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{4554DA3E-5B19-4D02-821A-911BBEF1423F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8D98B28A-6272-461F-99ED-C8F8560A0163}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA48EC-6EDC-41DD-9863-283F2264D5A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="17700" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">開発体験シート!$B$1:$I$37</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -547,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1411,7 +1409,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1734,13 +1732,13 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1751,8 +1749,8 @@
     <col min="9" max="9" width="54.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:9" ht="14.25" thickBot="1"/>
-    <row r="8" spans="2:9" ht="18.75" customHeight="1">
+    <row r="7" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="57" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18.75" customHeight="1">
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="66" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1797,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="18.75" customHeight="1">
+    <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
       <c r="C10" s="23" t="s">
         <v>11</v>
@@ -1820,7 +1818,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:9" ht="18.75" customHeight="1">
+    <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="16" t="s">
         <v>13</v>
@@ -1841,7 +1839,7 @@
       </c>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="2:9" ht="18.75" customHeight="1">
+    <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="62" t="s">
         <v>15</v>
       </c>
@@ -1864,7 +1862,7 @@
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:9" ht="18.75" customHeight="1">
+    <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="69"/>
       <c r="C13" s="21" t="s">
         <v>18</v>
@@ -1885,7 +1883,7 @@
       </c>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="2:9" ht="18.75" customHeight="1">
+    <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="69"/>
       <c r="C14" s="43" t="s">
         <v>20</v>
@@ -1906,7 +1904,7 @@
       </c>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="18.75" customHeight="1">
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="70" t="s">
         <v>23</v>
       </c>
@@ -1929,7 +1927,7 @@
       </c>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="2:9" ht="18.75" customHeight="1">
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
       <c r="C16" s="21" t="s">
         <v>26</v>
@@ -1950,7 +1948,7 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1">
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="71"/>
       <c r="C17" s="47" t="s">
         <v>20</v>
@@ -1971,7 +1969,7 @@
       </c>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" spans="2:9" ht="18.75" customHeight="1">
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="62" t="s">
         <v>28</v>
       </c>
@@ -1994,7 +1992,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9" ht="18.75" customHeight="1">
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="61"/>
       <c r="C19" s="24"/>
       <c r="D19" s="17" t="s">
@@ -2013,7 +2011,7 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:9" ht="18.75" customHeight="1">
+    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="62" t="s">
         <v>32</v>
       </c>
@@ -2036,7 +2034,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9" ht="18.75" customHeight="1">
+    <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="60"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20" t="s">
@@ -2055,7 +2053,7 @@
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" ht="18.75" customHeight="1">
+    <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="60"/>
       <c r="C22" s="22" t="s">
         <v>36</v>
@@ -2076,7 +2074,7 @@
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" ht="18.75" customHeight="1">
+    <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="60"/>
       <c r="C23" s="23"/>
       <c r="D23" s="20" t="s">
@@ -2095,7 +2093,7 @@
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" ht="18.75" customHeight="1">
+    <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="60"/>
       <c r="C24" s="22" t="s">
         <v>39</v>
@@ -2116,7 +2114,7 @@
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" ht="18.75" customHeight="1">
+    <row r="25" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="61"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
@@ -2135,7 +2133,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9" ht="18.75" customHeight="1">
+    <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="59" t="s">
         <v>42</v>
       </c>
@@ -2158,7 +2156,7 @@
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1">
+    <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="60"/>
       <c r="C27" s="64"/>
       <c r="D27" s="19" t="s">
@@ -2177,7 +2175,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="2:9" ht="18.75" customHeight="1">
+    <row r="28" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="61"/>
       <c r="C28" s="65"/>
       <c r="D28" s="28" t="s">
@@ -2196,7 +2194,7 @@
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:9" ht="18.75" customHeight="1">
+    <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="54" t="s">
         <v>46</v>
       </c>
@@ -2219,7 +2217,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="2:9" ht="18.75" customHeight="1">
+    <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="55"/>
       <c r="C30" s="34"/>
       <c r="D30" s="29" t="s">
@@ -2238,7 +2236,7 @@
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1">
+    <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="55"/>
       <c r="C31" s="34"/>
       <c r="D31" s="2" t="s">
@@ -2257,7 +2255,7 @@
       </c>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" ht="18.75" customHeight="1">
+    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="55"/>
       <c r="C32" s="35" t="s">
         <v>51</v>
@@ -2278,7 +2276,7 @@
       </c>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" ht="18.75" customHeight="1">
+    <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="55"/>
       <c r="C33" s="34"/>
       <c r="D33" s="2" t="s">
@@ -2297,7 +2295,7 @@
       </c>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" ht="18.75" customHeight="1">
+    <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="55"/>
       <c r="C34" s="36"/>
       <c r="D34" s="2" t="s">
@@ -2316,7 +2314,7 @@
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" ht="18.75" customHeight="1">
+    <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
       <c r="C35" s="37" t="s">
         <v>55</v>
@@ -2337,14 +2335,14 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="2:9" ht="18.75" customHeight="1">
+    <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="55"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>10</v>
@@ -2356,14 +2354,14 @@
       </c>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" ht="18.75" customHeight="1">
+    <row r="37" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="56"/>
       <c r="C37" s="31"/>
       <c r="D37" s="32" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>10</v>
@@ -2410,6 +2408,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2593,20 +2597,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB0C043-BCDB-4FB1-A381-49CAC1E0D462}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB0C043-BCDB-4FB1-A381-49CAC1E0D462}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>